--- a/biology/Zoologie/Garrulaxe_à_huppe_blanche/Garrulaxe_à_huppe_blanche.xlsx
+++ b/biology/Zoologie/Garrulaxe_à_huppe_blanche/Garrulaxe_à_huppe_blanche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Garrulaxe_%C3%A0_huppe_blanche</t>
+          <t>Garrulaxe_à_huppe_blanche</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Garrulax leucolophus
 Le Garrulaxe à huppe blanche (Garrulax leucolophus) est une espèce de passereaux de la famille des Leiothrichidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Garrulaxe_%C3%A0_huppe_blanche</t>
+          <t>Garrulaxe_à_huppe_blanche</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire s'étend de l'Uttarakhand à travers l'Himalaya, le nord-est de l'Inde et l'Indochine.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Garrulaxe_%C3%A0_huppe_blanche</t>
+          <t>Garrulaxe_à_huppe_blanche</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +557,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le garrulaxe à huppe blanche mesure environ 30 cm et pèse de 110 à 130 g.
 Mâle et femelle ont même plumage.
 En dehors des nidifications, il se déplace en bande de 12 à 40 oiseaux.
-Ses cris ressemblent à de puissants éclats de rires[1].
+Ses cris ressemblent à de puissants éclats de rires.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Garrulaxe_%C3%A0_huppe_blanche</t>
+          <t>Garrulaxe_à_huppe_blanche</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit dans les forêts à larges feuilles permanentes, dans les boisements secondaires en cours de régénération, dans les zones de broussailles, les jungles de bambous et les terres cultivées abandonnées.
 Il s'installe parfois dans les plantations et les jardins proche des zones boisées.
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Garrulaxe_%C3%A0_huppe_blanche</t>
+          <t>Garrulaxe_à_huppe_blanche</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Nutrition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le garrulaxe à huppe blanche est insectivore.
 Il se nourrit essentiellement d'insectes donc des coléoptères (familles des buprestidés, élatéridés, rutélidés, passalidés et cerambycidés).
@@ -624,7 +644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Garrulaxe_%C3%A0_huppe_blanche</t>
+          <t>Garrulaxe_à_huppe_blanche</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,11 +662,13 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le garrulaxe à huppe blanche peut se reproduire dès 2 ans.
 La saison des amours va de février à septembre. 
-Il construit un nid qu'il place entre 2 et 6 mètres dans un arbuste ou un buisson avec des herbes grossières, des bambous, des feuilles mortes, des brindilles, des racines, de la mousse... Dans ce nid en forme de coupe sommaire, large et peu profonde la femelle dépose de 2 à 6 œufs bleu verdâtre.Les deux parents couvent à tour de rôle puis après l'éclosion au bout d'environ 14 jours, nourrissent les oisillons[2].
+Il construit un nid qu'il place entre 2 et 6 mètres dans un arbuste ou un buisson avec des herbes grossières, des bambous, des feuilles mortes, des brindilles, des racines, de la mousse... Dans ce nid en forme de coupe sommaire, large et peu profonde la femelle dépose de 2 à 6 œufs bleu verdâtre.Les deux parents couvent à tour de rôle puis après l'éclosion au bout d'environ 14 jours, nourrissent les oisillons.
 </t>
         </is>
       </c>
